--- a/Team-Data/2007-08/1-19-2007-08.xlsx
+++ b/Team-Data/2007-08/1-19-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>-0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG2" t="n">
         <v>17</v>
@@ -762,10 +829,10 @@
         <v>28</v>
       </c>
       <c r="AJ2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
         <v>30</v>
@@ -777,7 +844,7 @@
         <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP2" t="n">
         <v>6</v>
@@ -786,16 +853,16 @@
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV2" t="n">
         <v>19</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,13 +1008,13 @@
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL3" t="n">
         <v>8</v>
@@ -968,7 +1035,7 @@
         <v>12</v>
       </c>
       <c r="AR3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS3" t="n">
         <v>8</v>
@@ -977,22 +1044,22 @@
         <v>22</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>7</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -1030,67 +1097,67 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
         <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.385</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="J4" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M4" t="n">
         <v>17.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O4" t="n">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="P4" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.702</v>
+        <v>0.701</v>
       </c>
       <c r="R4" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S4" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T4" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U4" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V4" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W4" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X4" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y4" t="n">
         <v>5.5</v>
@@ -1099,25 +1166,25 @@
         <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.5</v>
+        <v>95.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.8</v>
+        <v>-4.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1126,22 +1193,22 @@
         <v>24</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM4" t="n">
         <v>16</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>13</v>
@@ -1153,22 +1220,22 @@
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU4" t="n">
         <v>15</v>
       </c>
       <c r="AV4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW4" t="n">
         <v>14</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>26</v>
@@ -1177,13 +1244,13 @@
         <v>25</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
         <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>0.41</v>
+        <v>0.395</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.7</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K5" t="n">
         <v>0.424</v>
@@ -1239,40 +1306,40 @@
         <v>5.4</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O5" t="n">
-        <v>17.8</v>
+        <v>17.4</v>
       </c>
       <c r="P5" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.754</v>
+        <v>0.748</v>
       </c>
       <c r="R5" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="S5" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T5" t="n">
         <v>43.4</v>
       </c>
       <c r="U5" t="n">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="V5" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
         <v>5.7</v>
@@ -1281,67 +1348,67 @@
         <v>21.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB5" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.7</v>
+        <v>-3.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF5" t="n">
         <v>21</v>
       </c>
-      <c r="AF5" t="n">
-        <v>20</v>
-      </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
       </c>
       <c r="AL5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM5" t="n">
         <v>23</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO5" t="n">
         <v>24</v>
       </c>
-      <c r="AN5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
         <v>22</v>
       </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
         <v>10</v>
@@ -1350,22 +1417,22 @@
         <v>15</v>
       </c>
       <c r="AX5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB5" t="n">
         <v>22</v>
       </c>
       <c r="BC5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
@@ -1481,13 +1548,13 @@
         <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
@@ -1511,13 +1578,13 @@
         <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR6" t="n">
         <v>2</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
         <v>5</v>
@@ -1526,16 +1593,16 @@
         <v>27</v>
       </c>
       <c r="AV6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
         <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.472</v>
+        <v>0.47</v>
       </c>
       <c r="L7" t="n">
         <v>6.2</v>
@@ -1606,76 +1673,76 @@
         <v>16.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O7" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="P7" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.82</v>
+        <v>0.824</v>
       </c>
       <c r="R7" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S7" t="n">
         <v>31.6</v>
       </c>
       <c r="T7" t="n">
-        <v>42.1</v>
+        <v>41.9</v>
       </c>
       <c r="U7" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V7" t="n">
         <v>13</v>
       </c>
       <c r="W7" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
         <v>5.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.5</v>
+        <v>101.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL7" t="n">
         <v>16</v>
@@ -1687,10 +1754,10 @@
         <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1699,13 +1766,13 @@
         <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,7 +1781,7 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
@@ -1723,10 +1790,10 @@
         <v>21</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -1758,97 +1825,97 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.615</v>
+        <v>0.605</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
         <v>85.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M8" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.331</v>
+        <v>0.332</v>
       </c>
       <c r="O8" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="P8" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R8" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S8" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="T8" t="n">
         <v>45.4</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="V8" t="n">
         <v>15.8</v>
       </c>
       <c r="W8" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Y8" t="n">
         <v>4.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA8" t="n">
         <v>24.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="AC8" t="n">
         <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1860,7 +1927,7 @@
         <v>13</v>
       </c>
       <c r="AL8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="n">
         <v>13</v>
@@ -1875,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>2</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1902,7 +1969,7 @@
         <v>16</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
         <v>29</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>0.707</v>
+        <v>0.725</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="J9" t="n">
-        <v>79.5</v>
+        <v>79.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.458</v>
+        <v>0.46</v>
       </c>
       <c r="L9" t="n">
         <v>5.9</v>
@@ -1976,28 +2043,28 @@
         <v>19</v>
       </c>
       <c r="P9" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.763</v>
+        <v>0.766</v>
       </c>
       <c r="R9" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S9" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="T9" t="n">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="U9" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="V9" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X9" t="n">
         <v>5.1</v>
@@ -2012,13 +2079,13 @@
         <v>20.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.8</v>
+        <v>98.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,10 +2097,10 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
@@ -2042,13 +2109,13 @@
         <v>9</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="n">
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
@@ -2057,19 +2124,19 @@
         <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR9" t="n">
         <v>17</v>
       </c>
       <c r="AS9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2084,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA9" t="n">
         <v>22</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -2122,70 +2189,70 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
         <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>0.595</v>
+        <v>0.585</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="J10" t="n">
-        <v>88.8</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L10" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O10" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P10" t="n">
         <v>25.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.745</v>
+        <v>0.741</v>
       </c>
       <c r="R10" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S10" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T10" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U10" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V10" t="n">
         <v>13.8</v>
       </c>
       <c r="W10" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
         <v>4.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z10" t="n">
         <v>23.5</v>
@@ -2194,16 +2261,16 @@
         <v>22.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2230,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>13</v>
@@ -2242,7 +2309,7 @@
         <v>20</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS10" t="n">
         <v>19</v>
@@ -2260,10 +2327,10 @@
         <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -2304,61 +2371,61 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
         <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>0.525</v>
+        <v>0.513</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J11" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L11" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M11" t="n">
         <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O11" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P11" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.734</v>
+        <v>0.737</v>
       </c>
       <c r="R11" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S11" t="n">
         <v>31.7</v>
       </c>
       <c r="T11" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="U11" t="n">
         <v>20.9</v>
       </c>
       <c r="V11" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="W11" t="n">
         <v>7.8</v>
@@ -2373,22 +2440,22 @@
         <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC11" t="n">
         <v>1.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
         <v>16</v>
@@ -2400,10 +2467,10 @@
         <v>17</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>12</v>
@@ -2421,10 +2488,10 @@
         <v>27</v>
       </c>
       <c r="AQ11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
         <v>9</v>
@@ -2436,25 +2503,25 @@
         <v>20</v>
       </c>
       <c r="AV11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AW11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ11" t="n">
         <v>6</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" t="n">
         <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.439</v>
+        <v>0.45</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,40 +2571,40 @@
         <v>38.4</v>
       </c>
       <c r="J12" t="n">
-        <v>86.7</v>
+        <v>86.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L12" t="n">
         <v>8.4</v>
       </c>
       <c r="M12" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O12" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P12" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R12" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S12" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T12" t="n">
         <v>45.1</v>
       </c>
       <c r="U12" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V12" t="n">
         <v>16.6</v>
@@ -2552,7 +2619,7 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="AA12" t="n">
         <v>22.1</v>
@@ -2561,16 +2628,16 @@
         <v>103.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG12" t="n">
         <v>19</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
@@ -2603,10 +2670,10 @@
         <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS12" t="n">
         <v>3</v>
@@ -2615,25 +2682,25 @@
         <v>4</v>
       </c>
       <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX12" t="n">
         <v>6</v>
       </c>
-      <c r="AV12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>7</v>
-      </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -2668,46 +2735,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
         <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>0.333</v>
+        <v>0.314</v>
       </c>
       <c r="H13" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="I13" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="J13" t="n">
-        <v>79.40000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.43</v>
+        <v>0.428</v>
       </c>
       <c r="L13" t="n">
         <v>4.4</v>
       </c>
       <c r="M13" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.329</v>
+        <v>0.326</v>
       </c>
       <c r="O13" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="P13" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="R13" t="n">
         <v>9.699999999999999</v>
@@ -2716,34 +2783,34 @@
         <v>32.1</v>
       </c>
       <c r="T13" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U13" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V13" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W13" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.40000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.7</v>
+        <v>-5.2</v>
       </c>
       <c r="AD13" t="n">
         <v>30</v>
@@ -2752,19 +2819,19 @@
         <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2782,7 +2849,7 @@
         <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
         <v>7</v>
@@ -2794,34 +2861,34 @@
         <v>7</v>
       </c>
       <c r="AT13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
       </c>
       <c r="AW13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>6.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2958,7 +3025,7 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW14" t="n">
         <v>4</v>
@@ -2991,7 +3058,7 @@
         <v>12</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
         <v>17</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>0.275</v>
+        <v>0.282</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J15" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L15" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O15" t="n">
         <v>18.1</v>
       </c>
       <c r="P15" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.75</v>
+        <v>0.747</v>
       </c>
       <c r="R15" t="n">
         <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T15" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="V15" t="n">
         <v>16.1</v>
@@ -3092,28 +3159,28 @@
         <v>5.9</v>
       </c>
       <c r="X15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.3</v>
+        <v>19.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.4</v>
+        <v>101.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.1</v>
+        <v>-3.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
         <v>27</v>
@@ -3122,16 +3189,16 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>8</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3143,25 +3210,25 @@
         <v>6</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP15" t="n">
         <v>20</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
@@ -3170,22 +3237,22 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
         <v>4</v>
       </c>
       <c r="BA15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -3214,58 +3281,58 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J16" t="n">
         <v>77</v>
       </c>
       <c r="K16" t="n">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="L16" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P16" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.705</v>
+        <v>0.703</v>
       </c>
       <c r="R16" t="n">
         <v>9.5</v>
       </c>
       <c r="S16" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T16" t="n">
         <v>38.6</v>
       </c>
       <c r="U16" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V16" t="n">
         <v>15.1</v>
@@ -3274,25 +3341,25 @@
         <v>7.3</v>
       </c>
       <c r="X16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y16" t="n">
         <v>3.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA16" t="n">
         <v>22.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>-6.6</v>
+        <v>-6.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
@@ -3304,16 +3371,16 @@
         <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>16</v>
@@ -3334,7 +3401,7 @@
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS16" t="n">
         <v>26</v>
@@ -3346,7 +3413,7 @@
         <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW16" t="n">
         <v>16</v>
@@ -3355,16 +3422,16 @@
         <v>16</v>
       </c>
       <c r="AY16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
         <v>28</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,10 +3481,10 @@
         <v>36.3</v>
       </c>
       <c r="J17" t="n">
-        <v>80.40000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L17" t="n">
         <v>5.4</v>
@@ -3429,31 +3496,31 @@
         <v>0.34</v>
       </c>
       <c r="O17" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P17" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.741</v>
+        <v>0.737</v>
       </c>
       <c r="R17" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>40.3</v>
+        <v>40.6</v>
       </c>
       <c r="U17" t="n">
         <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X17" t="n">
         <v>4.6</v>
@@ -3468,40 +3535,40 @@
         <v>20.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>-5.8</v>
+        <v>-5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF17" t="n">
         <v>21</v>
       </c>
-      <c r="AF17" t="n">
-        <v>22</v>
-      </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>16</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL17" t="n">
         <v>24</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN17" t="n">
         <v>23</v>
@@ -3513,22 +3580,22 @@
         <v>25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU17" t="n">
         <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -3578,64 +3645,64 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" t="n">
-        <v>0.128</v>
+        <v>0.132</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="J18" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.439</v>
+        <v>0.436</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M18" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.341</v>
+        <v>0.337</v>
       </c>
       <c r="O18" t="n">
         <v>14.9</v>
       </c>
       <c r="P18" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.718</v>
+        <v>0.716</v>
       </c>
       <c r="R18" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S18" t="n">
         <v>29.4</v>
       </c>
       <c r="T18" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U18" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="V18" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W18" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X18" t="n">
         <v>4.1</v>
@@ -3644,19 +3711,19 @@
         <v>6.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.6</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,25 +3735,25 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM18" t="n">
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3695,22 +3762,22 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR18" t="n">
         <v>5</v>
       </c>
       <c r="AS18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
         <v>19</v>
@@ -3728,7 +3795,7 @@
         <v>29</v>
       </c>
       <c r="BB18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -3760,25 +3827,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="n">
         <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" t="n">
-        <v>0.462</v>
+        <v>0.474</v>
       </c>
       <c r="H19" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="J19" t="n">
-        <v>77.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="K19" t="n">
         <v>0.434</v>
@@ -3787,43 +3854,43 @@
         <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N19" t="n">
-        <v>0.326</v>
+        <v>0.325</v>
       </c>
       <c r="O19" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P19" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.718</v>
+        <v>0.716</v>
       </c>
       <c r="R19" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="S19" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T19" t="n">
-        <v>41.8</v>
+        <v>41.5</v>
       </c>
       <c r="U19" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V19" t="n">
         <v>15.7</v>
       </c>
       <c r="W19" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X19" t="n">
         <v>4.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z19" t="n">
         <v>23.2</v>
@@ -3832,13 +3899,13 @@
         <v>23.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.40000000000001</v>
+        <v>93</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5</v>
+        <v>-4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3850,19 +3917,19 @@
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
       </c>
       <c r="AJ19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK19" t="n">
         <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
         <v>18</v>
@@ -3877,22 +3944,22 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AS19" t="n">
         <v>18</v>
       </c>
       <c r="AT19" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>22</v>
@@ -3913,7 +3980,7 @@
         <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
       </c>
       <c r="AF20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG20" t="n">
         <v>4</v>
@@ -4056,7 +4123,7 @@
         <v>29</v>
       </c>
       <c r="AP20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -4124,61 +4191,61 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
         <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>0.325</v>
+        <v>0.308</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.438</v>
       </c>
       <c r="L21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M21" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="O21" t="n">
         <v>18.7</v>
       </c>
       <c r="P21" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.71</v>
+        <v>0.708</v>
       </c>
       <c r="R21" t="n">
         <v>12.6</v>
       </c>
       <c r="S21" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T21" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U21" t="n">
         <v>18</v>
       </c>
       <c r="V21" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W21" t="n">
         <v>6.3</v>
@@ -4193,16 +4260,16 @@
         <v>21.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.1</v>
+        <v>-6.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4223,22 +4290,22 @@
         <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="n">
         <v>17</v>
       </c>
       <c r="AN21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO21" t="n">
         <v>14</v>
       </c>
       <c r="AP21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ21" t="n">
         <v>28</v>
@@ -4256,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>27</v>
@@ -4265,13 +4332,13 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" t="n">
         <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>0.595</v>
+        <v>0.585</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
@@ -4327,34 +4394,34 @@
         <v>79.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L22" t="n">
         <v>8.9</v>
       </c>
       <c r="M22" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O22" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="P22" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.719</v>
+        <v>0.722</v>
       </c>
       <c r="R22" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S22" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T22" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U22" t="n">
         <v>20.4</v>
@@ -4363,16 +4430,16 @@
         <v>15.2</v>
       </c>
       <c r="W22" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y22" t="n">
         <v>4.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA22" t="n">
         <v>24</v>
@@ -4381,13 +4448,13 @@
         <v>103.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
         <v>10</v>
@@ -4396,16 +4463,16 @@
         <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI22" t="n">
         <v>12</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL22" t="n">
         <v>3</v>
@@ -4429,7 +4496,7 @@
         <v>26</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT22" t="n">
         <v>8</v>
@@ -4444,13 +4511,13 @@
         <v>25</v>
       </c>
       <c r="AX22" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AY22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -4488,46 +4555,46 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" t="n">
         <v>25</v>
       </c>
       <c r="G23" t="n">
-        <v>0.39</v>
+        <v>0.375</v>
       </c>
       <c r="H23" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I23" t="n">
         <v>35.8</v>
       </c>
       <c r="J23" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L23" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M23" t="n">
         <v>11.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.322</v>
+        <v>0.323</v>
       </c>
       <c r="O23" t="n">
         <v>18.1</v>
       </c>
       <c r="P23" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.715</v>
+        <v>0.712</v>
       </c>
       <c r="R23" t="n">
         <v>13.1</v>
@@ -4536,7 +4603,7 @@
         <v>28.9</v>
       </c>
       <c r="T23" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U23" t="n">
         <v>19.6</v>
@@ -4545,13 +4612,13 @@
         <v>15.7</v>
       </c>
       <c r="W23" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X23" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Z23" t="n">
         <v>20.2</v>
@@ -4560,16 +4627,16 @@
         <v>20.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>-2.9</v>
+        <v>-3.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF23" t="n">
         <v>25</v>
@@ -4581,7 +4648,7 @@
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ23" t="n">
         <v>17</v>
@@ -4599,7 +4666,7 @@
         <v>29</v>
       </c>
       <c r="AO23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="n">
         <v>15</v>
@@ -4620,7 +4687,7 @@
         <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW23" t="n">
         <v>6</v>
@@ -4638,10 +4705,10 @@
         <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -4748,25 +4815,25 @@
         <v>5.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
       </c>
       <c r="AF24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG24" t="n">
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
@@ -4778,10 +4845,10 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
         <v>26</v>
@@ -4811,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -4852,61 +4919,61 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" t="n">
         <v>24</v>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>0.615</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J25" t="n">
-        <v>78.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L25" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M25" t="n">
         <v>17.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.398</v>
+        <v>0.394</v>
       </c>
       <c r="O25" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="P25" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="Q25" t="n">
         <v>0.768</v>
       </c>
       <c r="R25" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S25" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="T25" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U25" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V25" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="W25" t="n">
         <v>5.5</v>
@@ -4915,40 +4982,40 @@
         <v>4.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="Z25" t="n">
         <v>20.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB25" t="n">
         <v>97.09999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AD25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE25" t="n">
         <v>8</v>
       </c>
-      <c r="AE25" t="n">
-        <v>10</v>
-      </c>
       <c r="AF25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH25" t="n">
         <v>2</v>
       </c>
       <c r="AI25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
@@ -4963,16 +5030,16 @@
         <v>2</v>
       </c>
       <c r="AO25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP25" t="n">
         <v>21</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>22</v>
       </c>
       <c r="AQ25" t="n">
         <v>9</v>
       </c>
       <c r="AR25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS25" t="n">
         <v>17</v>
@@ -4993,19 +5060,19 @@
         <v>19</v>
       </c>
       <c r="AY25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ25" t="n">
         <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB25" t="n">
         <v>17</v>
       </c>
       <c r="BC25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -5034,22 +5101,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" t="n">
         <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>0.436</v>
+        <v>0.421</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J26" t="n">
         <v>78.2</v>
@@ -5058,46 +5125,46 @@
         <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="M26" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.363</v>
+        <v>0.359</v>
       </c>
       <c r="O26" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="P26" t="n">
         <v>27</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.799</v>
+        <v>0.795</v>
       </c>
       <c r="R26" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S26" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="T26" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="U26" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="V26" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="W26" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X26" t="n">
         <v>3.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z26" t="n">
         <v>22.6</v>
@@ -5106,13 +5173,13 @@
         <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.8</v>
+        <v>-3.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5124,25 +5191,25 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
         <v>23</v>
       </c>
       <c r="AJ26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM26" t="n">
         <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO26" t="n">
         <v>6</v>
@@ -5154,7 +5221,7 @@
         <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS26" t="n">
         <v>25</v>
@@ -5166,7 +5233,7 @@
         <v>29</v>
       </c>
       <c r="AV26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -5216,64 +5283,64 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" t="n">
         <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>0.658</v>
+        <v>0.676</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J27" t="n">
-        <v>78.8</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K27" t="n">
         <v>0.458</v>
       </c>
       <c r="L27" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M27" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O27" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P27" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.749</v>
+        <v>0.753</v>
       </c>
       <c r="R27" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S27" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T27" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U27" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="V27" t="n">
         <v>12.7</v>
       </c>
       <c r="W27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
         <v>3.8</v>
@@ -5282,40 +5349,40 @@
         <v>4.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>97.2</v>
+        <v>97.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE27" t="n">
         <v>7</v>
       </c>
       <c r="AF27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AG27" t="n">
         <v>7</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
         <v>18</v>
       </c>
       <c r="AJ27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL27" t="n">
         <v>6</v>
@@ -5324,28 +5391,28 @@
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO27" t="n">
         <v>25</v>
       </c>
       <c r="AP27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5357,7 +5424,7 @@
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ27" t="n">
         <v>1</v>
@@ -5366,7 +5433,7 @@
         <v>21</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
         <v>4</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" t="n">
-        <v>0.225</v>
+        <v>0.231</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
@@ -5416,37 +5483,37 @@
         <v>37.3</v>
       </c>
       <c r="J28" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L28" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M28" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O28" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="P28" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.763</v>
       </c>
       <c r="R28" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U28" t="n">
         <v>21</v>
@@ -5458,25 +5525,25 @@
         <v>6.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB28" t="n">
         <v>96.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5488,7 +5555,7 @@
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
         <v>9</v>
@@ -5506,19 +5573,19 @@
         <v>27</v>
       </c>
       <c r="AN28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO28" t="n">
         <v>23</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5533,13 +5600,13 @@
         <v>28</v>
       </c>
       <c r="AW28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ28" t="n">
         <v>11</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -5580,94 +5647,94 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" t="n">
         <v>22</v>
       </c>
       <c r="F29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29" t="n">
-        <v>0.537</v>
+        <v>0.55</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J29" t="n">
-        <v>81.7</v>
+        <v>82</v>
       </c>
       <c r="K29" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L29" t="n">
         <v>7.3</v>
       </c>
       <c r="M29" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="N29" t="n">
-        <v>0.407</v>
+        <v>0.405</v>
       </c>
       <c r="O29" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P29" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="Q29" t="n">
         <v>0.804</v>
       </c>
       <c r="R29" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="S29" t="n">
         <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U29" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V29" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="W29" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z29" t="n">
         <v>20.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
         <v>14</v>
@@ -5694,7 +5761,7 @@
         <v>28</v>
       </c>
       <c r="AP29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
@@ -5706,7 +5773,7 @@
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
         <v>9</v>
@@ -5721,16 +5788,16 @@
         <v>25</v>
       </c>
       <c r="AY29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ29" t="n">
         <v>9</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>7</v>
       </c>
       <c r="BA29" t="n">
         <v>30</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>4.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
         <v>13</v>
@@ -5852,7 +5919,7 @@
         <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
@@ -5870,7 +5937,7 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
@@ -5888,7 +5955,7 @@
         <v>28</v>
       </c>
       <c r="AT30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>2.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6034,25 +6101,25 @@
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI31" t="n">
         <v>13</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
         <v>18</v>
       </c>
       <c r="AL31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM31" t="n">
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6082,7 +6149,7 @@
         <v>12</v>
       </c>
       <c r="AX31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6091,7 +6158,7 @@
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-19-2007-08</t>
+          <t>2008-01-19</t>
         </is>
       </c>
     </row>
